--- a/biology/Botanique/Pacouria_guianensis/Pacouria_guianensis.xlsx
+++ b/biology/Botanique/Pacouria_guianensis/Pacouria_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pacouria guianensis est une espèce de lianes sud-américaines, appartenant à la famille des Apocynaceae. C'est l'espèce type du genre Pacouria Aubl.
-Elle est connue en Guyane sous le nom de Liane caoutchouc[3], liane gomme (Créole), uwa kãsį̃ (Wayãpi), wakukwa arivra, ihip paβay kamwi (Palikur)[4], et au Suriname comme Ëepukuimë (Trio)[5].
+Elle est connue en Guyane sous le nom de Liane caoutchouc, liane gomme (Créole), uwa kãsį̃ (Wayãpi), wakukwa arivra, ihip paβay kamwi (Palikur), et au Suriname comme Ëepukuimë (Trio).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pacouria guianensis est une grosse liane ligneuse de canopée, principalement glabres, à tige de diamètre &gt; 10 cm. Toutes les parties coupées libèrent une sève laiteuse abondante.
 Les tiges sont de section ronde, couvertes de poils doux, veloutés quand elles sont jeunes, avec des lenticelles.
@@ -530,7 +544,7 @@
 L'ovaire est globuleux, pubescent, long d'environ 1 mm, avec le style deux fois plus long que l'ovaire. La tête du style est cylindrique, les appendices sont aussi longs que le corps.
 Les Fruits sont de grosses baies globuleuses, mesurant environ 8-15 cm de diamètre, lisses, de couleur, bleu-vert avec une couche cireuse blanche, devenant jaune-orange à maturité, avec des lenticelles blanchâtres.
 La pulpe jaunâtre, renfermant plus ou moins de latex, a un goût sucré et dégage une odeur plutôt désagréable.
-On trouve, immergées dans la pulpe, environ 12 graines, glabres, ellipsoïdes, mesurant 2,5 × 1,5 cm[3],[5].
+On trouve, immergées dans la pulpe, environ 12 graines, glabres, ellipsoïdes, mesurant 2,5 × 1,5 cm,.
 </t>
         </is>
       </c>
@@ -559,9 +573,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Pacouria guianensis Du Pérou au Brésil (Pará) en passant par la Colombie et le plateau des Guyanes (Guyana, Suriname[6], Guyane)[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Pacouria guianensis Du Pérou au Brésil (Pará) en passant par la Colombie et le plateau des Guyanes (Guyana, Suriname, Guyane).
 </t>
         </is>
       </c>
@@ -590,16 +606,18 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Floraison, probablement nocturne, a lieu en août en Guyane. Peu commune, elle pousse en forêt de terre ferme perturbée[3], dans les forêts anciennes de plaine, et surtout dans les zones ripicoles. 
-Les graines sont disséminées des singes (endozoochorie)[5], notamment Lagothrix lagotricha[7],[8],[9],[10].
-Ses fruits tombés au sol sont aussi consommés par les tapirs[11],[12],[13], mais aussi par le daguet rouge et dans une moindre mesure par le daguet gris[14].
-Sa dissémination a été abordée en Colombie[15].
-Les espèces du genre Pacouria présentent un mécanisme de grimpe relativement peu commun : elles s'accrochent grâce à l'enroulement de ses pédoncules et de ses inflorescences[16]. Pacouria guianensis forme par ailleurs des stolons capables de former des racines adventives et de réitérer des structures de pousses de plante juvénile[17].
-Ses fruits pourraient aussi prédatés par des larves de mouches des fruits du genre Anastrepha[18],[19], notamment Anastrepha aithogaster Norrbom[20].
-En raison de la taille remarquable de ses fruits, Pacouria guianensis a fait l'objet d'études sur son mode de dissemination[21],[22].
-Sa classification phyllogénétique a aussi été étudiée[23].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Floraison, probablement nocturne, a lieu en août en Guyane. Peu commune, elle pousse en forêt de terre ferme perturbée, dans les forêts anciennes de plaine, et surtout dans les zones ripicoles. 
+Les graines sont disséminées des singes (endozoochorie), notamment Lagothrix lagotricha.
+Ses fruits tombés au sol sont aussi consommés par les tapirs mais aussi par le daguet rouge et dans une moindre mesure par le daguet gris.
+Sa dissémination a été abordée en Colombie.
+Les espèces du genre Pacouria présentent un mécanisme de grimpe relativement peu commun : elles s'accrochent grâce à l'enroulement de ses pédoncules et de ses inflorescences. Pacouria guianensis forme par ailleurs des stolons capables de former des racines adventives et de réitérer des structures de pousses de plante juvénile.
+Ses fruits pourraient aussi prédatés par des larves de mouches des fruits du genre Anastrepha notamment Anastrepha aithogaster Norrbom.
+En raison de la taille remarquable de ses fruits, Pacouria guianensis a fait l'objet d'études sur son mode de dissemination,.
+Sa classification phyllogénétique a aussi été étudiée.
 </t>
         </is>
       </c>
@@ -628,11 +646,13 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, les Wayãpi appliquent le latex brut sur les furoncles comme résolutif, et les graines sont brûlées sous le hamac des patients pour soigner les maladies liées aux esprits envoyés par l'anaconda. Les fruits sont réputés toxiques chez les Palikur[4].
-Les fruits de l'espèce proche Pacouria boliviensis sont communément consommés par certaines populations au Pérou[24].
-Des lianes proches étaient autrefois utilisées pour l'extraction de caoutchouc, mais cette espèce semble ne pas en avoir fait l'objet[25]. Cependant, son nom de liane caoutchouc / liane gomme et d'autres sources[26] attesteraient du contraire en Guyane.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, les Wayãpi appliquent le latex brut sur les furoncles comme résolutif, et les graines sont brûlées sous le hamac des patients pour soigner les maladies liées aux esprits envoyés par l'anaconda. Les fruits sont réputés toxiques chez les Palikur.
+Les fruits de l'espèce proche Pacouria boliviensis sont communément consommés par certaines populations au Pérou.
+Des lianes proches étaient autrefois utilisées pour l'extraction de caoutchouc, mais cette espèce semble ne pas en avoir fait l'objet. Cependant, son nom de liane caoutchouc / liane gomme et d'autres sources attesteraient du contraire en Guyane.
 </t>
         </is>
       </c>
@@ -661,9 +681,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[27] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « PACOURIA (Guianenſis). (Tabula 105.)
 Frutex, ramos plures, ſarmentoſos, nodoſos, volubiles, ſuprà arbores vicinas ſpargens. Folia ovato-acuta, glabra, integerrima, undulata, oppoſita, brevi petiolata, petiolis ſubamplexantibus.
 Flores racemoſi, axillares, racemis volubilibus.
